--- a/UNP.xlsx
+++ b/UNP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48E84A7-C8B8-475D-AE71-F0FBFB925E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B9772-F885-4818-AC17-4A08EF76423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{687E883E-D8F9-46A8-A179-2B33B0EFA80E}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{687E883E-D8F9-46A8-A179-2B33B0EFA80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -296,13 +296,19 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -339,6 +345,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,22 +373,27 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -768,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619F6707-0E48-4552-8AAA-0F3D3C68AEDC}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B5" sqref="B4:B5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -790,8 +809,8 @@
       <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="2">
-        <v>225.5</v>
+      <c r="L2" s="10">
+        <v>221.76</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -799,14 +818,14 @@
         <v>3</v>
       </c>
       <c r="L3" s="4">
-        <v>597.47560999999996</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>71</v>
+        <v>593.04366600000003</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -814,7 +833,7 @@
       </c>
       <c r="L4" s="4">
         <f>+L2*L3</f>
-        <v>134730.75005499998</v>
+        <v>131513.36337216001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -825,10 +844,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="4">
-        <v>1411</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>71</v>
+        <v>1060</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -839,11 +858,11 @@
         <v>6</v>
       </c>
       <c r="L6" s="4">
-        <f>2227+30615</f>
-        <v>32842</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>71</v>
+        <f>30291+2522</f>
+        <v>32813</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -855,7 +874,7 @@
       </c>
       <c r="L7" s="4">
         <f>+L4-L5+L6</f>
-        <v>166161.75005499998</v>
+        <v>163266.36337216001</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -891,10 +910,10 @@
   <dimension ref="A1:AQ633"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1226,13 +1245,17 @@
       <c r="C9" s="4">
         <v>1817</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4">
+        <v>1721</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
         <v>1836</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>1901</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1282,13 +1305,17 @@
       <c r="C10" s="4">
         <v>2104</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4">
+        <v>2123</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
         <v>2082</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>2212</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1338,13 +1365,17 @@
       <c r="C11" s="4">
         <v>1695</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4">
+        <v>1794</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
         <v>1773</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <v>1730</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1394,13 +1425,17 @@
       <c r="C12" s="4">
         <v>5616</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4">
+        <v>5638</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
         <v>5691</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>5843</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1453,13 +1488,17 @@
       <c r="C13" s="4">
         <v>415</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>369</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <v>336</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4">
+        <v>311</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1512,7 +1551,7 @@
       </c>
       <c r="D14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6007</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
@@ -1528,7 +1567,7 @@
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6154</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
@@ -1600,13 +1639,17 @@
       <c r="C15" s="4">
         <v>1223</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <v>1187</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
         <v>1212</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4">
+        <v>1249</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1656,13 +1699,17 @@
       <c r="C16" s="4">
         <v>613</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>644</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
         <v>631</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4">
+        <v>642</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1712,13 +1759,17 @@
       <c r="C17" s="4">
         <v>658</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <v>596</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
         <v>603</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4">
+        <v>613</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1768,13 +1819,17 @@
       <c r="C18" s="4">
         <v>594</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <v>625</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
         <v>610</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4">
+        <v>576</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1827,7 +1882,7 @@
       </c>
       <c r="D19" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2955</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="3"/>
@@ -1843,7 +1898,7 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3074</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="3"/>
@@ -1906,13 +1961,17 @@
       <c r="C20" s="4">
         <v>216</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4">
+        <v>219</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
         <v>241</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4">
+        <v>230</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1962,13 +2021,17 @@
       <c r="C21" s="4">
         <v>355</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <v>336</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
         <v>359</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4">
+        <v>319</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -2021,7 +2084,7 @@
       </c>
       <c r="D22" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="5"/>
@@ -2037,7 +2100,7 @@
       </c>
       <c r="H22" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2525</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="5"/>
@@ -2100,13 +2163,17 @@
       <c r="C23" s="4">
         <v>92</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4">
+        <v>103</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
         <v>78</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4">
+        <v>123</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -2156,13 +2223,17 @@
       <c r="C24" s="4">
         <v>324</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4">
+        <v>319</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
         <v>322</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4">
+        <v>335</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -2215,7 +2286,7 @@
       </c>
       <c r="D25" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2184</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="7"/>
@@ -2231,7 +2302,7 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2313</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="7"/>
@@ -2294,13 +2365,17 @@
       <c r="C26" s="4">
         <v>499</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4">
+        <v>511</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <v>501</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4">
+        <v>437</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -2353,7 +2428,7 @@
       </c>
       <c r="D27" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1673</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="9"/>
@@ -2369,7 +2444,7 @@
       </c>
       <c r="H27" s="4">
         <f t="shared" ref="H27:J27" si="10">+H25-H26</f>
-        <v>0</v>
+        <v>1876</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="10"/>
@@ -2476,9 +2551,9 @@
         <f t="shared" ref="C29:J29" si="12">+C27/C30</f>
         <v>2.6936966513460274</v>
       </c>
-      <c r="D29" s="7" t="e">
+      <c r="D29" s="7">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>2.7453232687889728</v>
       </c>
       <c r="E29" s="7" t="e">
         <f t="shared" si="12"/>
@@ -2492,9 +2567,9 @@
         <f t="shared" si="12"/>
         <v>2.7054908485856903</v>
       </c>
-      <c r="H29" s="7" t="e">
+      <c r="H29" s="7">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>3.1577175559670088</v>
       </c>
       <c r="I29" s="7" t="e">
         <f t="shared" si="12"/>
@@ -2563,13 +2638,17 @@
       <c r="C30" s="4">
         <v>609.20000000000005</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4">
+        <v>609.4</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4">
         <v>601</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4">
+        <v>594.1</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -2668,7 +2747,10 @@
         <f>+G14/C14-1</f>
         <v>-6.632399270436462E-4</v>
       </c>
-      <c r="H32" s="6"/>
+      <c r="H32" s="8">
+        <f>+H14/D14-1</f>
+        <v>2.4471449975029147E-2</v>
+      </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -2725,9 +2807,9 @@
         <f t="shared" ref="C33:F33" si="15">+C19/C14</f>
         <v>0.48797877632233461</v>
       </c>
-      <c r="D33" s="9" t="e">
+      <c r="D33" s="9">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.49192608623272849</v>
       </c>
       <c r="E33" s="9" t="e">
         <f t="shared" si="15"/>
@@ -2741,9 +2823,9 @@
         <f>+G19/G14</f>
         <v>0.4929483988717438</v>
       </c>
-      <c r="H33" s="9" t="e">
+      <c r="H33" s="9">
         <f t="shared" ref="H33:J33" si="16">+H19/H14</f>
-        <v>#DIV/0!</v>
+        <v>0.49951251218719533</v>
       </c>
       <c r="I33" s="9" t="e">
         <f t="shared" si="16"/>
@@ -2816,9 +2898,9 @@
         <f t="shared" ref="C34:F34" si="18">+C22/C14</f>
         <v>0.39330127673685955</v>
       </c>
-      <c r="D34" s="9" t="e">
+      <c r="D34" s="9">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.39953387714333277</v>
       </c>
       <c r="E34" s="9" t="e">
         <f t="shared" si="18"/>
@@ -2832,9 +2914,9 @@
         <f>+G22/G14</f>
         <v>0.39339638294342127</v>
       </c>
-      <c r="H34" s="9" t="e">
+      <c r="H34" s="9">
         <f t="shared" ref="H34:J34" si="19">+H22/H14</f>
-        <v>#DIV/0!</v>
+        <v>0.41030224244393892</v>
       </c>
       <c r="I34" s="9" t="e">
         <f t="shared" si="19"/>
@@ -2907,9 +2989,9 @@
         <f t="shared" ref="C35:F35" si="21">+C26/C25</f>
         <v>0.23317757009345794</v>
       </c>
-      <c r="D35" s="9" t="e">
+      <c r="D35" s="9">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>0.23397435897435898</v>
       </c>
       <c r="E35" s="9" t="e">
         <f t="shared" si="21"/>
@@ -2923,9 +3005,9 @@
         <f>+G26/G25</f>
         <v>0.23554301833568406</v>
       </c>
-      <c r="H35" s="9" t="e">
+      <c r="H35" s="9">
         <f t="shared" ref="H35:J35" si="22">+H26/H25</f>
-        <v>#DIV/0!</v>
+        <v>0.18893212278426286</v>
       </c>
       <c r="I35" s="9" t="e">
         <f t="shared" si="22"/>
